--- a/diagnostico_pesv/chart.xlsx
+++ b/diagnostico_pesv/chart.xlsx
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -657,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -697,7 +697,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -729,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
   </sheetData>
